--- a/data/Dicionário de dados.xlsx
+++ b/data/Dicionário de dados.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.tomazelli\Documents\Projetos USJT\Projeto A3 Analise de dados e Big Data\Dicionário de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5759AE-0C92-454A-A88E-C9326AB40816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B53B109-00AB-4D02-A9ED-97E1AF58A4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{21A7FCC1-E1A3-4758-B938-352D1783389D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{21A7FCC1-E1A3-4758-B938-352D1783389D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionário de dados" sheetId="1" r:id="rId1"/>
-    <sheet name="Feature Engineering" sheetId="3" r:id="rId2"/>
+    <sheet name="Dados ausentes" sheetId="5" r:id="rId2"/>
+    <sheet name="Dados removidos" sheetId="4" r:id="rId3"/>
+    <sheet name="Feature Engineering" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dicionário de dados'!$A$3:$H$24</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="73">
   <si>
     <t>Dicionário de dados</t>
   </si>
@@ -282,21 +284,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -304,30 +300,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,9 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A912E279-57AB-4F21-8BB1-8A9E87B85448}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -666,574 +644,574 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1244,72 +1222,247 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3293EB0-4DA2-472D-BACA-B301034741DF}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AA7B61-4CCA-499B-B950-221197B4304F}">
+  <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="1.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F92D634-3666-4EE9-8DF8-25F3B7BC71F8}">
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="48.08984375" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3293EB0-4DA2-472D-BACA-B301034741DF}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" t="s">
         <v>72</v>
       </c>
     </row>
